--- a/src/test/resources/common/webapp/controller/users.xlsx
+++ b/src/test/resources/common/webapp/controller/users.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neko\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\pleiades\workspace\common\src\test\resources\common\webapp\controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>名前</t>
   </si>
@@ -36,9 +36,6 @@
     <t>ｅメール</t>
   </si>
   <si>
-    <t>$2a$10$.l84tRL3HL1TVL22xk5UuO01/q4loiaYyIBFZg8cmAHbHUGI8ciCC</t>
-  </si>
-  <si>
     <t>normaluser1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -48,6 +45,22 @@
   </si>
   <si>
     <t>user1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>normaluser1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -55,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -487,19 +500,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="5" width="9" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -516,19 +529,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
